--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639738.349790091</v>
+        <v>1664253.031261008</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667967.903276843</v>
+        <v>5667967.903276844</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19384698280639</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>157.0028849368447</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>10.38619671514864</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>218.9861682051759</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>79.48772244064683</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>71.18534776628218</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>144.6963243757077</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1625,10 +1625,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>114.9581870864144</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.15637744954284</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,61 +2236,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>117.6206731470972</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>106.7776990973756</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2479,61 +2479,61 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>67.4017606263275</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>80.68513560973264</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>84.70612745604963</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,64 +3032,64 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>6.327424367954379</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,61 +3272,61 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>53.68307785045486</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>146.1547622212236</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3563,7 +3563,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.160958123107411</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.8385894655533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>4.089654531614567</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>46.79470495664741</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>47.64584584692156</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
-      </c>
-      <c r="L2" t="n">
-        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.89093722176946</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28100232079598</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
         <v>4.28100232079598</v>
@@ -4410,13 +4410,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
-      </c>
-      <c r="L3" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4516,22 +4516,22 @@
         <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>84.76023320505688</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>30.70717359904702</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.3388210166704</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C6" t="n">
-        <v>282.3388210166704</v>
+        <v>369.484465818592</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>369.484465818592</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>953.5660477175568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>725.3424294539459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>490.1903212222032</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>490.1903212222032</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>282.3388210166704</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y6" t="n">
-        <v>282.3388210166704</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4841,13 @@
         <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>518.2486856454962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>883.7665267827101</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>710.349182233379</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>508.1625875921451</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="V9" t="n">
-        <v>718.7354192781918</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="W9" t="n">
-        <v>718.7354192781918</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="X9" t="n">
-        <v>510.883919072659</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y9" t="n">
-        <v>510.883919072659</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,10 +5127,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5145,25 +5145,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>875.9671776591715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
         <v>668.2068788942177</v>
@@ -5604,10 +5604,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5698,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>417.9156620931329</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C21" t="n">
-        <v>417.9156620931329</v>
+        <v>152.8110551848245</v>
       </c>
       <c r="D21" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>625.6759608580869</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>625.6759608580869</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>625.6759608580869</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>625.6759608580869</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>625.6759608580869</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.9156620931329</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="22">
@@ -5938,22 +5938,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>284.6244618379714</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C24" t="n">
-        <v>165.8157010833278</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>273.6719627978486</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>127.1374048247336</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>284.6244618379714</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F27" t="n">
-        <v>226.0945550188371</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>87.36372960145263</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y27" t="n">
-        <v>226.0945550188371</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="28">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D30" t="n">
-        <v>406.5532930683112</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E30" t="n">
-        <v>247.3158380628557</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="F30" t="n">
-        <v>100.7812800897406</v>
+        <v>105.5970206680991</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>105.5970206680991</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>105.5970206680991</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
         <v>304.2053859195205</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y30" t="n">
-        <v>555.4877027295624</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6655,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.1033079837604</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>683.0789437687823</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>683.0789437687823</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>683.0789437687823</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>683.0789437687823</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>683.0789437687823</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>475.3186450038284</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>440.8221433693402</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C36" t="n">
-        <v>440.8221433693402</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D36" t="n">
-        <v>291.8877337080889</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>440.8221433693402</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>440.8221433693402</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>440.8221433693402</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>440.8221433693402</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y36" t="n">
-        <v>440.8221433693402</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7114,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>417.4543050195419</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y39" t="n">
-        <v>670.1213740781145</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7348,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7812428759814</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>213.083079827416</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>66.54852185430101</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7497,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7691,7 +7691,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D45" t="n">
-        <v>304.9965798960495</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E45" t="n">
-        <v>304.9965798960495</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F45" t="n">
-        <v>158.4620219229344</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G45" t="n">
-        <v>158.4620219229344</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7731,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="46">
@@ -7792,10 +7792,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9252,13 +9252,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10431,19 +10431,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>185.4193833999402</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11379,19 +11379,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>12.94875607969328</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23385,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23513,10 +23513,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
-        <v>118.5639071305274</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,10 +23811,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>119.8056861312425</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,7 +23871,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,13 +23938,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,10 +23975,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>15.25045261077312</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.0083512452788</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>55.08782584121859</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>30.56581806583499</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24339,13 +24339,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>44.83368361016896</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,13 +24573,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,25 +24762,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56.65838155347799</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>4.690505395365449</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,7 +24920,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24971,13 +24971,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>48.34662117197414</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>193.8373043268672</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,22 +25160,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.55236638604161</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>79.78661985975123</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25451,7 +25451,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>126.9013523517146</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25473,10 +25473,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.0744861133891</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.84410631175106</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>168.6188444567012</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>90.54881220656323</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>64.5895983895749</v>
+        <v>55.31854389949292</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,7 +25998,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365732.1144041469</v>
+        <v>365732.114404147</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365732.1144041469</v>
+        <v>365732.114404147</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="13">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="F2" t="n">
         <v>240932.9751704318</v>
       </c>
-      <c r="F2" t="n">
-        <v>240932.9751704317</v>
-      </c>
       <c r="G2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="H2" t="n">
         <v>240932.9751704319</v>
@@ -26338,7 +26338,7 @@
         <v>240932.9751704318</v>
       </c>
       <c r="K2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="L2" t="n">
         <v>240932.9751704319</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350176.5876421471</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190264.2544862519</v>
+        <v>192472.8043659726</v>
       </c>
       <c r="C6" t="n">
-        <v>179141.9232357062</v>
+        <v>182169.8963540967</v>
       </c>
       <c r="D6" t="n">
-        <v>239718.2454223742</v>
+        <v>242746.2185407648</v>
       </c>
       <c r="E6" t="n">
-        <v>197969.0650756602</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="F6" t="n">
-        <v>197969.0650756602</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="G6" t="n">
-        <v>197969.0650756603</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="H6" t="n">
-        <v>197969.0650756603</v>
+        <v>200997.038194051</v>
       </c>
       <c r="I6" t="n">
-        <v>197969.0650756602</v>
+        <v>200997.0381940508</v>
       </c>
       <c r="J6" t="n">
-        <v>183967.8329353809</v>
+        <v>186995.8060537716</v>
       </c>
       <c r="K6" t="n">
-        <v>149712.1121420276</v>
+        <v>152740.0852604183</v>
       </c>
       <c r="L6" t="n">
-        <v>197969.0650756603</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="M6" t="n">
-        <v>197969.0650756602</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="N6" t="n">
-        <v>197969.0650756602</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="O6" t="n">
-        <v>197969.0650756603</v>
+        <v>200997.038194051</v>
       </c>
       <c r="P6" t="n">
-        <v>197969.0650756603</v>
+        <v>200997.0381940509</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1088905323286</v>
+        <v>368.1689019631713</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>125.574663436352</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>136.065262941971</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27588,16 +27588,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>260.3610887711225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>303.8671480099096</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>15.70561405147103</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,10 +27713,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>189.778531979673</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>187.8898775365355</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.9013523517145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>20.6701117119963</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>161.6152393831431</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,13 +35495,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35972,13 +35972,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37865,16 +37865,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1664253.031261008</v>
+        <v>1666576.703074876</v>
       </c>
     </row>
     <row r="7">
@@ -656,23 +658,23 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47.13383555196375</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.25778981025229</v>
       </c>
     </row>
     <row r="3">
@@ -735,55 +737,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,55 +834,55 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>26.16190956546853</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.0028849368447</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>60.27622829416089</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>218.9861682051759</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>79.48772244064683</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -1427,10 +1429,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,22 +1736,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>143.7755410381886</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>22.97702676147813</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>84.84103413332343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>106.7776990973756</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2131257424249</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>84.70612745604963</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>29.9892228523575</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>53.68307785045486</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>222.3396163656984</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>8.160958123107411</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,16 +3635,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,16 +3833,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>46.79470495664741</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.1481656116171</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6806854287134353</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>56.91690033700354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4144,52 +4146,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>173.385681888029</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>119.3326222820192</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="F2" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
         <v>4.28100232079598</v>
@@ -4334,16 +4336,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>110.2358097604965</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4373,7 +4375,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>173.385681888029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.4401811388256</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>166.4401811388256</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>84.76023320505688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>84.76023320505688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4522,16 +4524,16 @@
         <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>528.0732384820715</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C6" t="n">
-        <v>369.484465818592</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>369.484465818592</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>369.484465818592</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="X6" t="n">
-        <v>735.8335372470253</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y6" t="n">
-        <v>528.0732384820715</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="7">
@@ -4750,22 +4752,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9366034337592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9366034337592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9366034337592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>255.9366034337592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9366034337592</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.9389693285341</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C9" t="n">
-        <v>279.9389693285341</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>279.9389693285341</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>883.7665267827101</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>710.349182233379</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>508.1625875921451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>279.9389693285341</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>279.9389693285341</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>279.9389693285341</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>279.9389693285341</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>279.9389693285341</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5121,43 +5123,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
         <v>231.8830517671884</v>
@@ -5321,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5363,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>717.6598068330284</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>911.6556555383177</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>911.6556555383177</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>911.6556555383177</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>911.6556555383177</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>152.8110551848245</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>756.2968567456824</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C24" t="n">
-        <v>581.8438274645554</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D24" t="n">
-        <v>432.9094178033041</v>
+        <v>97.53226341566398</v>
       </c>
       <c r="E24" t="n">
-        <v>273.6719627978486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>127.1374048247336</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="25">
@@ -6163,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X29" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>105.5970206680991</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>105.5970206680991</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5970206680991</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
         <v>304.2053859195205</v>
@@ -6576,16 +6578,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>252.1315786412141</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>252.1315786412141</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>252.1315786412141</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>252.1315786412141</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6637,22 +6639,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
         <v>656.0584510084244</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7116,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>499.3853800778592</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>293.0313262305118</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>118.5782969493848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>118.5782969493848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>118.5782969493848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>118.5782969493848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>118.5782969493848</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>461.2466632505798</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7350,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>738.7078125165641</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.2549444941228</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C42" t="n">
-        <v>521.2549444941228</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D42" t="n">
-        <v>372.3205348328715</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E42" t="n">
-        <v>213.083079827416</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F42" t="n">
-        <v>66.54852185430101</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="43">
@@ -7585,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.77296163243852</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C45" t="n">
-        <v>76.77296163243852</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="D45" t="n">
-        <v>76.77296163243852</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="E45" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>76.77296163243852</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>492.3847606029253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>284.5332603973924</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.77296163243852</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,7 +8069,7 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8078,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9257,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>374.9551956315293</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23577,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23589,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>56.389187656633</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23747,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.41960608993695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>119.8056861312425</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>336.5320379404362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25045261077312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>147.9595530161018</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,16 +24171,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.1764713530042</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>30.56581806583499</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0597660285826</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>4.690505395365449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>48.34662117197414</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>221.7057603085621</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,19 +25116,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>58.55236638604161</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>80.77591565244732</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25439,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W38" t="n">
-        <v>126.9013523517146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0744861133891</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,16 +25523,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823863</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>90.54881220656323</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01656308320455</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>156.9643950266875</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>55.31854389949292</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365732.1144041469</v>
+        <v>365732.114404147</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365732.1144041469</v>
+        <v>365732.114404147</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="F2" t="n">
         <v>240932.9751704318</v>
@@ -26329,31 +26331,31 @@
         <v>240932.9751704318</v>
       </c>
       <c r="H2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="I2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="K2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="L2" t="n">
         <v>240932.9751704318</v>
       </c>
-      <c r="J2" t="n">
-        <v>240932.9751704318</v>
-      </c>
-      <c r="K2" t="n">
-        <v>240932.9751704318</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="M2" t="n">
-        <v>240932.9751704318</v>
-      </c>
       <c r="N2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624266</v>
+        <v>347968.0377624267</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192472.8043659726</v>
+        <v>192472.8043659723</v>
       </c>
       <c r="C6" t="n">
         <v>182169.8963540967</v>
       </c>
       <c r="D6" t="n">
-        <v>242746.2185407648</v>
+        <v>242746.2185407649</v>
       </c>
       <c r="E6" t="n">
         <v>200997.0381940509</v>
@@ -26537,31 +26539,31 @@
         <v>200997.0381940509</v>
       </c>
       <c r="H6" t="n">
-        <v>200997.038194051</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="I6" t="n">
-        <v>200997.0381940508</v>
+        <v>200997.0381940509</v>
       </c>
       <c r="J6" t="n">
-        <v>186995.8060537716</v>
+        <v>186995.8060537717</v>
       </c>
       <c r="K6" t="n">
-        <v>152740.0852604183</v>
+        <v>152740.0852604184</v>
       </c>
       <c r="L6" t="n">
         <v>200997.0381940509</v>
       </c>
       <c r="M6" t="n">
-        <v>200997.0381940509</v>
+        <v>200997.038194051</v>
       </c>
       <c r="N6" t="n">
-        <v>200997.0381940509</v>
+        <v>200997.038194051</v>
       </c>
       <c r="O6" t="n">
         <v>200997.038194051</v>
       </c>
       <c r="P6" t="n">
-        <v>200997.0381940509</v>
+        <v>200997.0381940508</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>368.1689019631713</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.9801488458013</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.02399860067941</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.065262941971</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27594,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>154.3469453318533</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>188.4703195251436</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.70561405147103</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27746,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>191.4187548667587</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>187.8898775365355</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>5.066549668675236</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>15.93831371378155</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.6701117119963</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.36645333167576</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="O2" t="n">
         <v>51.35040662570936</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,7 +34789,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37159,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9091475161415</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1666576.703074876</v>
+        <v>1597725.406633439</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667967.903276844</v>
+        <v>5667967.903276843</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,49 +673,49 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.25778981025229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="H3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="H4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>193.4600505471182</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>60.27622829416089</v>
+        <v>156.4280676246904</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.4093399017307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7701852745342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>123.1846644288417</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>85.80201760854757</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1609,73 +1609,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>143.7755410381886</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.700812595336015</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,61 +1855,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>71.01467844038818</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.97702676147813</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>84.84103413332343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
     </row>
     <row r="22">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.46860910239674</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>184.4056925540074</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>220.8837963815378</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.62553367015321</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>13.36070629151663</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>29.9892228523575</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3325,7 +3325,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V38" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>222.3082294474576</v>
+        <v>91.56533252450006</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,58 +3754,58 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>8.060861148105174</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1481656116171</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6806854287134353</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.385681888029</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3326222820192</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>65.27956267600931</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>65.27956267600931</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.385681888029</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
         <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,31 +4412,31 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>161.0727123199487</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
         <v>159.9970564337892</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="D4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="G4" t="n">
         <v>58.33406192680583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4512,16 +4512,16 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
         <v>84.76023320505688</v>
@@ -4530,10 +4530,10 @@
         <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>472.7618635207803</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X6" t="n">
-        <v>472.7618635207803</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.7618635207803</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.1694235828572</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>565.0413275456638</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>281.5846883638847</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C15" t="n">
-        <v>281.5846883638847</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>717.6598068330284</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>489.4361885694175</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V15" t="n">
-        <v>489.4361885694175</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W15" t="n">
-        <v>489.4361885694175</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X15" t="n">
-        <v>281.5846883638847</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.5846883638847</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5843,37 +5843,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
         <v>193.7341723913397</v>
@@ -5931,16 +5931,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="W23" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="X23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246.4666730769152</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C24" t="n">
-        <v>246.4666730769152</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D24" t="n">
-        <v>97.53226341566398</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>777.788779193457</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>777.788779193457</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="X24" t="n">
-        <v>246.4666730769152</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.4666730769152</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="25">
@@ -6165,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6259,7 +6259,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
         <v>710.516763498309</v>
@@ -6271,7 +6271,7 @@
         <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6338,16 +6338,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6402,25 +6402,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6496,19 +6496,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6575,19 +6575,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07461146390284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6639,19 +6639,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>32.7768060309366</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="34">
@@ -6876,25 +6876,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7025,10 +7025,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N36" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N36" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>670.0450503124422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="37">
@@ -7116,16 +7116,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
         <v>31.35113235729608</v>
@@ -7198,22 +7198,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
         <v>274.7999090013961</v>
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7286,19 +7286,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="40">
@@ -7353,22 +7353,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7441,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.1764243339896</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1764243339896</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D42" t="n">
-        <v>439.1764243339896</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,43 +7499,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>674.3285325657323</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>674.3285325657323</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V42" t="n">
-        <v>439.1764243339896</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W42" t="n">
-        <v>439.1764243339896</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X42" t="n">
-        <v>439.1764243339896</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y42" t="n">
-        <v>439.1764243339896</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="43">
@@ -7587,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>272.8227978119081</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>272.8227978119081</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7730,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
@@ -7996,7 +7996,7 @@
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8078,7 +8078,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9491,7 +9491,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11396,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23345,13 +23345,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>71.84306284685337</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23497,13 +23497,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.4284425830174</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>56.389187656633</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>203.9818831819684</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>256.7375800297467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>66.41960608993695</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9595530161018</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>142.81920059726</v>
       </c>
     </row>
     <row r="22">
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>80.1764713530042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>15.7590361408142</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.1474515333243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.9076499797141</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0155457579237</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,16 +24967,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>199.2828334142264</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25004,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>131.7085061018672</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>221.7057603085621</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25116,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>80.77591565244732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>107.544508198328</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V38" t="n">
-        <v>119.4884220823224</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>10.49235770196771</v>
+        <v>141.2352546249252</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>138.8566050823863</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>149.5842193072958</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>85.01656308320455</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.0341136990839</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9643950266875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>115.5128620930921</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365732.114404147</v>
+        <v>365732.1144041469</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516053</v>
@@ -26328,10 +26328,10 @@
         <v>240932.9751704318</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="I2" t="n">
         <v>240932.9751704319</v>
@@ -26346,7 +26346,7 @@
         <v>240932.9751704318</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
@@ -26355,7 +26355,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624267</v>
+        <v>347968.0377624265</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26524,46 +26524,46 @@
         <v>192472.8043659723</v>
       </c>
       <c r="C6" t="n">
-        <v>182169.8963540967</v>
+        <v>182169.8963540969</v>
       </c>
       <c r="D6" t="n">
         <v>242746.2185407649</v>
       </c>
       <c r="E6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740104</v>
       </c>
       <c r="F6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740104</v>
       </c>
       <c r="G6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740105</v>
       </c>
       <c r="H6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740105</v>
       </c>
       <c r="I6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740105</v>
       </c>
       <c r="J6" t="n">
-        <v>186995.8060537717</v>
+        <v>174777.7954337312</v>
       </c>
       <c r="K6" t="n">
-        <v>152740.0852604184</v>
+        <v>140522.0746403779</v>
       </c>
       <c r="L6" t="n">
-        <v>200997.0381940509</v>
+        <v>188779.0275740104</v>
       </c>
       <c r="M6" t="n">
-        <v>200997.038194051</v>
+        <v>188779.0275740104</v>
       </c>
       <c r="N6" t="n">
-        <v>200997.038194051</v>
+        <v>188779.0275740105</v>
       </c>
       <c r="O6" t="n">
-        <v>200997.038194051</v>
+        <v>188779.0275740105</v>
       </c>
       <c r="P6" t="n">
-        <v>200997.0381940508</v>
+        <v>188779.0275740105</v>
       </c>
     </row>
   </sheetData>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>220.0807858381715</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9801488458013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>141.8290697929902</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5477458235686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>188.4703195251436</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.0308142361831</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27706,10 +27706,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>191.4187548667587</v>
+        <v>95.26691553622916</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>301.251446211517</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>5.066549668675236</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>15.93831371378155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>76.98006426597986</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.5841931152253</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>53.51252900994975</v>
-      </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37393,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>226.4350751681936</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
